--- a/other/testOrder.xlsx
+++ b/other/testOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valav\source\repos\Working\AutoShop\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B435A1A-19B6-4225-9B24-EBEB25B0CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEA9EA2-41A6-4C4B-B171-FD75501F9AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B968F4E-4603-4762-8186-007E7618927B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B968F4E-4603-4762-8186-007E7618927B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -245,12 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,98 +569,98 @@
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="3" t="s">
         <v>7</v>
       </c>
@@ -674,21 +674,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
@@ -702,30 +702,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -733,68 +733,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="K12:M12"/>
@@ -803,6 +798,11 @@
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -817,7 +817,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
